--- a/all_time_world.xlsx
+++ b/all_time_world.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholas/Documents/private code/DS/Write-a-Data-Science-Blog-Post/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360D67D2-37EE-A347-996B-FD5170B054FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D8D760-7BEE-0543-955C-0E383E1CF49C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="900" windowWidth="28040" windowHeight="17440" xr2:uid="{35BD9E38-D732-EC44-B7B9-3569CF612F2C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="327">
   <si>
     <t>S</t>
   </si>
@@ -6330,13 +6330,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6392,6 +6392,68 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53" descr="Ukraine">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId105" tooltip="Ukraine"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2890D0E-C76F-0949-ACDF-BD12681E7889}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="12217400"/>
+          <a:ext cx="228600" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -6399,39 +6461,39 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 53" descr="Ukraine">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId105" tooltip="Ukraine"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2890D0E-C76F-0949-ACDF-BD12681E7889}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="12217400"/>
-          <a:ext cx="228600" cy="152400"/>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId107" tooltip="Walisische Fußballnationalmannschaft/Weltmeisterschaften"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80100732-FC75-8243-9EC1-1BC296A8ACD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="12446000"/>
+          <a:ext cx="228600" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6461,39 +6523,39 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Picture 54">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId107" tooltip="Walisische Fußballnationalmannschaft/Weltmeisterschaften"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80100732-FC75-8243-9EC1-1BC296A8ACD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="12446000"/>
-          <a:ext cx="228600" cy="139700"/>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55" descr="Slowakei">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId109" tooltip="Slowakei"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5ABB84-5A13-4D47-B862-C6EE32F28099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="12674600"/>
+          <a:ext cx="228600" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6523,39 +6585,39 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Picture 55" descr="Slowakei">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId109" tooltip="Slowakei"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5ABB84-5A13-4D47-B862-C6EE32F28099}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="12674600"/>
-          <a:ext cx="228600" cy="152400"/>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56" descr="Slowenien">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId111" tooltip="Slowenien"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4015ADEC-DC17-F646-B2B1-7C0276AB3C0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="12903200"/>
+          <a:ext cx="228600" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6583,41 +6645,41 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Picture 56" descr="Slowenien">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId111" tooltip="Slowenien"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4015ADEC-DC17-F646-B2B1-7C0276AB3C0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="12903200"/>
-          <a:ext cx="228600" cy="114300"/>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57" descr="Kuba">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId113" tooltip="Kuba"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642E9422-0005-864A-8F03-27CED0138D4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="13131800"/>
+          <a:ext cx="254000" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6645,41 +6707,41 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Picture 57" descr="Kuba">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId113" tooltip="Kuba"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642E9422-0005-864A-8F03-27CED0138D4A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="13131800"/>
-          <a:ext cx="254000" cy="127000"/>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58" descr="Nordkorea">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId115" tooltip="Nordkorea"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E40AE5B-1BD0-0744-B4B8-13CB58567824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="13360400"/>
+          <a:ext cx="228600" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6707,41 +6769,41 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Picture 58" descr="Nordkorea">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId115" tooltip="Nordkorea"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E40AE5B-1BD0-0744-B4B8-13CB58567824}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="13360400"/>
-          <a:ext cx="228600" cy="114300"/>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59" descr="Bosnien und Herzegowina">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId117" tooltip="Bosnien und Herzegowina"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E68F34-E881-0241-ADD7-3C1EA6E1E2B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId118">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="13589000"/>
+          <a:ext cx="254000" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6775,34 +6837,34 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Picture 59" descr="Bosnien und Herzegowina">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId117" tooltip="Bosnien und Herzegowina"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E68F34-E881-0241-ADD7-3C1EA6E1E2B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId118">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="13589000"/>
+        <xdr:cNvPr id="61" name="Picture 60" descr="Jamaika">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId119" tooltip="Jamaika"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E87675-BC48-724E-AACE-5441552CB957}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId120">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="13817600"/>
           <a:ext cx="254000" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6837,34 +6899,34 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Picture 60" descr="Jamaika">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId119" tooltip="Jamaika"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E87675-BC48-724E-AACE-5441552CB957}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId120">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="13817600"/>
+        <xdr:cNvPr id="62" name="Picture 61" descr="Neuseeland">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId121" tooltip="Neuseeland"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C3733B-B3FE-CD4E-9BF6-99F0E68639B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId122">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="14046200"/>
           <a:ext cx="254000" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6899,34 +6961,34 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Picture 61" descr="Neuseeland">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId121" tooltip="Neuseeland"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C3733B-B3FE-CD4E-9BF6-99F0E68639B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId122">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="14046200"/>
+        <xdr:cNvPr id="63" name="Picture 62" descr="Honduras">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId123" tooltip="Honduras"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D827F910-077C-794F-A34B-283136F4B480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId124">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="14274800"/>
           <a:ext cx="254000" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6957,39 +7019,39 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Picture 62" descr="Honduras">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId123" tooltip="Honduras"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D827F910-077C-794F-A34B-283136F4B480}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId124">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="14274800"/>
-          <a:ext cx="254000" cy="127000"/>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63" descr="Angola">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId125" tooltip="Angola"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E90359BE-4C11-184B-B6EA-85E5949C826F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId126">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="14503400"/>
+          <a:ext cx="254000" cy="165100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7017,41 +7079,41 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Picture 63" descr="Angola">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId125" tooltip="Angola"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E90359BE-4C11-184B-B6EA-85E5949C826F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId126">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="14503400"/>
-          <a:ext cx="254000" cy="165100"/>
+        <xdr:cNvPr id="65" name="Picture 64" descr="Israel">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId127" tooltip="Israel"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D167BB-61E7-E946-83B1-11560F8E1581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId128">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="14732000"/>
+          <a:ext cx="228600" cy="165100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7079,41 +7141,41 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Picture 64" descr="Israel">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId127" tooltip="Israel"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D167BB-61E7-E946-83B1-11560F8E1581}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId128">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="14732000"/>
-          <a:ext cx="228600" cy="165100"/>
+        <xdr:cNvPr id="66" name="Picture 65" descr="Ägypten">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId129" tooltip="Ägypten"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01676AA7-74F5-1941-992F-22B5E70E6C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId130">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="14960600"/>
+          <a:ext cx="254000" cy="165100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7143,39 +7205,39 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 65" descr="Ägypten">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId129" tooltip="Ägypten"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01676AA7-74F5-1941-992F-22B5E70E6C86}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId130">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="14960600"/>
-          <a:ext cx="254000" cy="165100"/>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66" descr="Island">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId131" tooltip="Island"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1E9F4A-9E49-CF4E-BFC7-01B7AB68B66E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId132">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="15189200"/>
+          <a:ext cx="254000" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7205,39 +7267,39 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 66" descr="Island">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId131" tooltip="Island"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1E9F4A-9E49-CF4E-BFC7-01B7AB68B66E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId132">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="15189200"/>
-          <a:ext cx="254000" cy="177800"/>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67" descr="Kuwait">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId133" tooltip="Kuwait"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65D47B0-5284-0548-99C3-65A62D20DD3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId134">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="15417800"/>
+          <a:ext cx="254000" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7267,39 +7329,39 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 67" descr="Kuwait">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId133" tooltip="Kuwait"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65D47B0-5284-0548-99C3-65A62D20DD3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId134">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="15417800"/>
-          <a:ext cx="254000" cy="127000"/>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68" descr="Trinidad und Tobago">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId135" tooltip="Trinidad und Tobago"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79869CA9-FAFD-4944-AC02-AA73AC6E56FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId136">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="15646400"/>
+          <a:ext cx="254000" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7329,39 +7391,39 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 68" descr="Trinidad und Tobago">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId135" tooltip="Trinidad und Tobago"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79869CA9-FAFD-4944-AC02-AA73AC6E56FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId136">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="15646400"/>
-          <a:ext cx="254000" cy="152400"/>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69" descr="Bolivien">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId137" tooltip="Bolivien"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84994E67-5238-554F-84C6-959158871FB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId138">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="15875000"/>
+          <a:ext cx="254000" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7391,39 +7453,39 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 69" descr="Bolivien">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId137" tooltip="Bolivien"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84994E67-5238-554F-84C6-959158871FB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId138">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="15875000"/>
-          <a:ext cx="254000" cy="177800"/>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70" descr="Irak">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId139" tooltip="Irak"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B493AAC8-A204-1E40-A544-B0A3E1072D0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId140">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="16103600"/>
+          <a:ext cx="254000" cy="165100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7453,39 +7515,39 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 70" descr="Irak">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId139" tooltip="Irak"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B493AAC8-A204-1E40-A544-B0A3E1072D0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId140">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="16103600"/>
-          <a:ext cx="254000" cy="165100"/>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71" descr="Togo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId141" tooltip="Togo"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C15DF7D-E702-8641-A88C-E36750BC0DD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId142">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="16332200"/>
+          <a:ext cx="254000" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7513,41 +7575,41 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 71" descr="Togo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId141" tooltip="Togo"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C15DF7D-E702-8641-A88C-E36750BC0DD4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId142">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="16332200"/>
-          <a:ext cx="254000" cy="152400"/>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72" descr="Kanada">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId143" tooltip="Kanada"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583B09AA-832F-EF41-A4A5-30CF3D615ADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId144">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="16560800"/>
+          <a:ext cx="228600" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7577,39 +7639,39 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 72" descr="Kanada">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId143" tooltip="Kanada"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583B09AA-832F-EF41-A4A5-30CF3D615ADD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId144">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="16560800"/>
-          <a:ext cx="228600" cy="114300"/>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73" descr="Indonesien">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId145" tooltip="Indonesien"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C619F52-FB16-2745-80E7-69E0FF5A40D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId146">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="16789400"/>
+          <a:ext cx="228600" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7643,34 +7705,34 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 73" descr="Indonesien">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId145" tooltip="Indonesien"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C619F52-FB16-2745-80E7-69E0FF5A40D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId146">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="16789400"/>
+        <xdr:cNvPr id="75" name="Picture 74" descr="Panama">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId147" tooltip="Panama"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91F8D66-161E-484E-A3C7-5BEC0E2D8A58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId148">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="17043400"/>
           <a:ext cx="228600" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7701,39 +7763,39 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Picture 74" descr="Panama">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId147" tooltip="Panama"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91F8D66-161E-484E-A3C7-5BEC0E2D8A58}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId148">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="17043400"/>
-          <a:ext cx="228600" cy="152400"/>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75" descr="Vereinigte Arabische Emirate">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId149" tooltip="Vereinigte Arabische Emirate"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03AD78F2-CBBF-0941-9121-5D688A0290AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId150">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="17272000"/>
+          <a:ext cx="228600" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7761,41 +7823,41 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Picture 75" descr="Vereinigte Arabische Emirate">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId149" tooltip="Vereinigte Arabische Emirate"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03AD78F2-CBBF-0941-9121-5D688A0290AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId150">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="17272000"/>
-          <a:ext cx="228600" cy="114300"/>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 76" descr="Volksrepublik China">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId151" tooltip="Volksrepublik China"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D782B917-7C88-D04E-8C4B-CA23DCDA046E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId152">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="17500600"/>
+          <a:ext cx="254000" cy="165100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7825,39 +7887,39 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Picture 76" descr="Volksrepublik China">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId151" tooltip="Volksrepublik China"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D782B917-7C88-D04E-8C4B-CA23DCDA046E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId152">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="17500600"/>
-          <a:ext cx="254000" cy="165100"/>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77" descr="Haiti">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId153" tooltip="Haiti"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40D994D-7060-9445-AD31-B9CE9BADD21E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId154">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="17729200"/>
+          <a:ext cx="254000" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7887,39 +7949,39 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Picture 77" descr="Haiti">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId153" tooltip="Haiti"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40D994D-7060-9445-AD31-B9CE9BADD21E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId154">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="17729200"/>
-          <a:ext cx="254000" cy="152400"/>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78" descr="Demokratische Republik Kongo">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId155" tooltip="Demokratische Republik Kongo"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{254E0795-C2CF-A549-870F-5B42AC9A8D75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId156">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="17957800"/>
+          <a:ext cx="254000" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7949,68 +8011,6 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Picture 78" descr="Demokratische Republik Kongo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId155" tooltip="Demokratische Republik Kongo"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{254E0795-C2CF-A549-870F-5B42AC9A8D75}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId156">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="17957800"/>
-          <a:ext cx="254000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>79</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11177,6 +11177,67 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="211" name="Picture 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03839A89-BB4B-6F41-8533-DFCCAFF1544B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId209">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="14249400"/>
+          <a:ext cx="292100" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -11188,33 +11249,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="211" name="Picture 210">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03839A89-BB4B-6F41-8533-DFCCAFF1544B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId209">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="14249400"/>
+        <xdr:cNvPr id="212" name="Picture 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71034879-FA60-4748-9C91-7C1E01072FE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId210">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="14490700"/>
           <a:ext cx="292100" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11245,38 +11306,38 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="212" name="Picture 211">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71034879-FA60-4748-9C91-7C1E01072FE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId210">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="14490700"/>
-          <a:ext cx="292100" cy="190500"/>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="213" name="Picture 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51EF8308-ECD4-2644-AF6F-B0BAAD11F0C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId211">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="14732000"/>
+          <a:ext cx="292100" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11306,38 +11367,38 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="213" name="Picture 212">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51EF8308-ECD4-2644-AF6F-B0BAAD11F0C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId211">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="14732000"/>
-          <a:ext cx="292100" cy="177800"/>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="214" name="Picture 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD19C85-31D9-814B-9D4C-59D012F316B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId212">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="14973300"/>
+          <a:ext cx="292100" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11367,38 +11428,38 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="214" name="Picture 213">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD19C85-31D9-814B-9D4C-59D012F316B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId212">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="14973300"/>
-          <a:ext cx="292100" cy="190500"/>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="215" name="Picture 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C101229-15B9-2541-81C6-0A9D30FB1ED4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId213">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="15214600"/>
+          <a:ext cx="292100" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11432,33 +11493,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="215" name="Picture 214">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C101229-15B9-2541-81C6-0A9D30FB1ED4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId213">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="15214600"/>
+        <xdr:cNvPr id="216" name="Picture 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7564621D-5CC2-7D46-A0CE-32E542E3D2D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId214">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="15455900"/>
           <a:ext cx="292100" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11493,33 +11554,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="216" name="Picture 215">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7564621D-5CC2-7D46-A0CE-32E542E3D2D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId214">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="15455900"/>
+        <xdr:cNvPr id="217" name="Picture 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EFE6C7-9E75-3A41-A3D2-E86AA7BC12FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId215">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="15697200"/>
           <a:ext cx="292100" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11554,33 +11615,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="217" name="Picture 216">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EFE6C7-9E75-3A41-A3D2-E86AA7BC12FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId215">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="15697200"/>
+        <xdr:cNvPr id="218" name="Picture 217">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2720CE31-2F7C-9C4B-A996-B6C93A41CC3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId216">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="15938500"/>
           <a:ext cx="292100" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11615,33 +11676,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="218" name="Picture 217">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2720CE31-2F7C-9C4B-A996-B6C93A41CC3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId216">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="15938500"/>
+        <xdr:cNvPr id="219" name="Picture 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF1A3D7D-563B-6B45-83B5-028AB5D01AAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId217">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="16179800"/>
           <a:ext cx="292100" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11676,33 +11737,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="219" name="Picture 218">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF1A3D7D-563B-6B45-83B5-028AB5D01AAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId217">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="16179800"/>
+        <xdr:cNvPr id="220" name="Picture 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF48598-A7CE-3C47-9509-7FB960FF26F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId218">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="16421100"/>
           <a:ext cx="292100" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11737,33 +11798,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="220" name="Picture 219">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF48598-A7CE-3C47-9509-7FB960FF26F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId218">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="16421100"/>
+        <xdr:cNvPr id="221" name="Picture 220">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C23F5A29-91EC-1443-A4F2-94B9D0F60C2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId219">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="16662400"/>
           <a:ext cx="292100" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11794,38 +11855,38 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="221" name="Picture 220">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C23F5A29-91EC-1443-A4F2-94B9D0F60C2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId219">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="16662400"/>
-          <a:ext cx="292100" cy="152400"/>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="222" name="Picture 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405AB74A-186A-E54B-B5A2-9EA969C9C811}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId220">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="16903700"/>
+          <a:ext cx="292100" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11853,40 +11914,40 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="222" name="Picture 221">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405AB74A-186A-E54B-B5A2-9EA969C9C811}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId220">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="16903700"/>
-          <a:ext cx="292100" cy="190500"/>
+        <xdr:cNvPr id="223" name="Picture 222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEDAC95E-2536-F141-98CF-70019C44F75E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId221">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="17145000"/>
+          <a:ext cx="266700" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11914,40 +11975,40 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="223" name="Picture 222">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEDAC95E-2536-F141-98CF-70019C44F75E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId221">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="17145000"/>
-          <a:ext cx="266700" cy="190500"/>
+        <xdr:cNvPr id="224" name="Picture 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DACB71C6-9154-A949-9B6A-31E22824BB53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId222">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="17386300"/>
+          <a:ext cx="292100" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11975,40 +12036,40 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="224" name="Picture 223">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DACB71C6-9154-A949-9B6A-31E22824BB53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId222">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="17386300"/>
-          <a:ext cx="292100" cy="190500"/>
+        <xdr:cNvPr id="225" name="Picture 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA60D3FB-BF76-574F-9643-2598A39A7499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId223">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="17627600"/>
+          <a:ext cx="266700" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12036,40 +12097,40 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="225" name="Picture 224">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA60D3FB-BF76-574F-9643-2598A39A7499}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId223">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="17627600"/>
-          <a:ext cx="266700" cy="190500"/>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="226" name="Picture 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D6542A-0996-A346-832F-20F7D28829F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId224">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="17868900"/>
+          <a:ext cx="292100" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12099,38 +12160,38 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="226" name="Picture 225">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D6542A-0996-A346-832F-20F7D28829F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId224">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="17868900"/>
-          <a:ext cx="292100" cy="152400"/>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="227" name="Picture 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D809BD-DB19-ED49-B2C1-B6C0160BB024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId225">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="18110200"/>
+          <a:ext cx="292100" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12158,40 +12219,40 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>279400</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="227" name="Picture 226">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D809BD-DB19-ED49-B2C1-B6C0160BB024}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId225">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="18110200"/>
-          <a:ext cx="292100" cy="177800"/>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="228" name="Picture 227">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F5D498-46B7-DF41-AC96-AF0ABA51E16B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId226">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="18351500"/>
+          <a:ext cx="279400" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12219,40 +12280,40 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="228" name="Picture 227">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F5D498-46B7-DF41-AC96-AF0ABA51E16B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId226">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="18351500"/>
-          <a:ext cx="279400" cy="190500"/>
+        <xdr:cNvPr id="229" name="Picture 228">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE669C8F-959F-0D46-85D2-2CBDE4E4FEA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId227">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="18592800"/>
+          <a:ext cx="292100" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12282,38 +12343,38 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="229" name="Picture 228">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE669C8F-959F-0D46-85D2-2CBDE4E4FEA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId227">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="18592800"/>
-          <a:ext cx="292100" cy="190500"/>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="230" name="Picture 229">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310DB16F-3428-A44F-A60B-25E3F9E23EFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId228">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="18834100"/>
+          <a:ext cx="292100" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12343,38 +12404,38 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="230" name="Picture 229">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310DB16F-3428-A44F-A60B-25E3F9E23EFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId228">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="18834100"/>
-          <a:ext cx="292100" cy="177800"/>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="231" name="Picture 230">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF0158E-F1EC-AD40-9DBA-E0A5016C2FEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId229">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="19075400"/>
+          <a:ext cx="292100" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12404,38 +12465,38 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="231" name="Picture 230">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF0158E-F1EC-AD40-9DBA-E0A5016C2FEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId229">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="19075400"/>
-          <a:ext cx="292100" cy="152400"/>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="232" name="Picture 231">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC26083-1206-6B40-9BA8-B48DD1931F7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId230">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="19316700"/>
+          <a:ext cx="292100" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12469,33 +12530,33 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="232" name="Picture 231">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC26083-1206-6B40-9BA8-B48DD1931F7C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId230">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="19316700"/>
+        <xdr:cNvPr id="233" name="Picture 232">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C385178B-523E-C043-9E4B-AE63B2AD420C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId231">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="19558000"/>
           <a:ext cx="292100" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12526,38 +12587,38 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="233" name="Picture 232">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C385178B-523E-C043-9E4B-AE63B2AD420C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId231">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="19558000"/>
-          <a:ext cx="292100" cy="190500"/>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="234" name="Picture 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071EDAB8-DA98-234F-AA74-1080B724F361}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId232">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="19799300"/>
+          <a:ext cx="292100" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12587,38 +12648,38 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="234" name="Picture 233">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071EDAB8-DA98-234F-AA74-1080B724F361}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId232">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="19799300"/>
-          <a:ext cx="292100" cy="152400"/>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="235" name="Picture 234">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B1B3EC-C5CE-6B46-B9E5-43580A1DF13E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId233">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="20040600"/>
+          <a:ext cx="292100" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12648,38 +12709,38 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="235" name="Picture 234">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B1B3EC-C5CE-6B46-B9E5-43580A1DF13E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId233">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="20040600"/>
-          <a:ext cx="292100" cy="190500"/>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="236" name="Picture 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7359E05F-EC4E-C247-BEBE-F214EED9F207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId234">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="20281900"/>
+          <a:ext cx="292100" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12707,40 +12768,40 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="236" name="Picture 235">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7359E05F-EC4E-C247-BEBE-F214EED9F207}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId234">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="20281900"/>
-          <a:ext cx="292100" cy="177800"/>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="237" name="Picture 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6069DD49-92AF-0B4C-B63B-8C484607CA8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId156">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="20523200"/>
+          <a:ext cx="254000" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12768,69 +12829,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="237" name="Picture 236">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6069DD49-92AF-0B4C-B63B-8C484607CA8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId156">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="20523200"/>
-          <a:ext cx="254000" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>79</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -22824,10 +22824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C239FAC-19FD-5749-8CD2-4DFCEE3CDEF2}">
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25035,15 +25035,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B52" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>81</v>
@@ -25052,70 +25052,72 @@
         <v>81</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G52" s="3">
         <v>5</v>
       </c>
       <c r="H52" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J52" s="1">
         <v>8</v>
       </c>
       <c r="K52" s="3">
-        <v>1.33</v>
-      </c>
-      <c r="L52" s="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="M52" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>291</v>
+        <v>274</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B53" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="G53" s="3">
         <v>5</v>
       </c>
       <c r="H53" s="3">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="J53" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K53" s="3">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="O53" s="4" t="s">
         <v>196</v>
@@ -25123,7 +25125,7 @@
     </row>
     <row r="54" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
@@ -25132,34 +25134,32 @@
         <v>55</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="G54" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H54" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J54" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K54" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="L54" s="3"/>
       <c r="M54" s="2" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="O54" s="4" t="s">
         <v>196</v>
@@ -25167,41 +25167,41 @@
     </row>
     <row r="55" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G55" s="3">
+        <v>5</v>
+      </c>
+      <c r="H55" s="3">
+        <v>7</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J55" s="1">
         <v>4</v>
       </c>
-      <c r="H55" s="3">
-        <v>4</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J55" s="1">
-        <v>6</v>
-      </c>
       <c r="K55" s="3">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="2" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="O55" s="4" t="s">
         <v>196</v>
@@ -25209,13 +25209,13 @@
     </row>
     <row r="56" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B56" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>79</v>
@@ -25224,26 +25224,26 @@
         <v>79</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G56" s="3">
         <v>5</v>
       </c>
       <c r="H56" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="J56" s="1">
         <v>4</v>
       </c>
       <c r="K56" s="3">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="L56" s="3"/>
-      <c r="M56" s="2" t="s">
-        <v>295</v>
+      <c r="M56" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="O56" s="4" t="s">
         <v>196</v>
@@ -25251,13 +25251,13 @@
     </row>
     <row r="57" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B57" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>79</v>
@@ -25266,40 +25266,40 @@
         <v>79</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="G57" s="3">
         <v>5</v>
       </c>
       <c r="H57" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="J57" s="1">
         <v>4</v>
       </c>
       <c r="K57" s="3">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="L57" s="3"/>
-      <c r="M57" s="4" t="s">
-        <v>296</v>
+      <c r="M57" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B58" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>79</v>
@@ -25308,76 +25308,76 @@
         <v>79</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="G58" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H58" s="3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="J58" s="1">
         <v>4</v>
       </c>
       <c r="K58" s="3">
-        <v>1.33</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B59" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="G59" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H59" s="3">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J59" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K59" s="3">
-        <v>0.56999999999999995</v>
+        <v>1</v>
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
@@ -25395,13 +25395,13 @@
         <v>81</v>
       </c>
       <c r="G60" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H60" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J60" s="1">
         <v>3</v>
@@ -25411,63 +25411,63 @@
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="F61" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G61" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H61" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J61" s="1">
         <v>3</v>
       </c>
       <c r="K61" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L61" s="3"/>
-      <c r="M61" s="2" t="s">
-        <v>302</v>
+      <c r="M61" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B62" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>90</v>
@@ -25476,76 +25476,76 @@
         <v>58</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G62" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H62" s="3">
         <v>14</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1">
         <v>3</v>
       </c>
       <c r="K62" s="3">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>304</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B63" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G63" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J63" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K63" s="3">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="L63" s="3"/>
-      <c r="M63" s="4" t="s">
-        <v>306</v>
+      <c r="M63" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
@@ -25566,10 +25566,10 @@
         <v>1</v>
       </c>
       <c r="H64" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="J64" s="1">
         <v>2</v>
@@ -25579,21 +25579,21 @@
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="O64" s="4" t="s">
-        <v>248</v>
+        <v>308</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B65" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>90</v>
@@ -25602,76 +25602,76 @@
         <v>81</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="G65" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H65" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="J65" s="1">
         <v>2</v>
       </c>
       <c r="K65" s="3">
-        <v>0.67</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L65" s="3"/>
-      <c r="M65" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>309</v>
+      <c r="M65" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B66" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E66" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="G66" s="3">
+        <v>2</v>
+      </c>
+      <c r="H66" s="3">
         <v>5</v>
       </c>
-      <c r="H66" s="3">
-        <v>12</v>
-      </c>
       <c r="I66" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J66" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K66" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="L66" s="3"/>
-      <c r="M66" s="4" t="s">
-        <v>311</v>
+      <c r="M66" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
@@ -25692,10 +25692,10 @@
         <v>2</v>
       </c>
       <c r="H67" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="J67" s="1">
         <v>1</v>
@@ -25705,15 +25705,15 @@
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
@@ -25731,10 +25731,10 @@
         <v>81</v>
       </c>
       <c r="G68" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H68" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>43</v>
@@ -25747,21 +25747,21 @@
       </c>
       <c r="L68" s="3"/>
       <c r="M68" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B69" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>90</v>
@@ -25770,76 +25770,76 @@
         <v>79</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="G69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
       </c>
       <c r="K69" s="3">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="L69" s="3"/>
-      <c r="M69" s="2" t="s">
-        <v>307</v>
+      <c r="M69" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B70" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G70" s="3">
         <v>1</v>
       </c>
       <c r="H70" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3"/>
-      <c r="M70" s="4" t="s">
-        <v>315</v>
+      <c r="M70" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -25860,10 +25860,10 @@
         <v>1</v>
       </c>
       <c r="H71" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -25873,15 +25873,15 @@
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B72" s="3">
         <v>1</v>
@@ -25899,10 +25899,10 @@
         <v>58</v>
       </c>
       <c r="G72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>87</v>
@@ -25915,21 +25915,21 @@
       </c>
       <c r="L72" s="3"/>
       <c r="M72" s="2" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>166</v>
+      <c r="A73" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>90</v>
@@ -25938,16 +25938,16 @@
         <v>90</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="G73" s="3">
         <v>0</v>
       </c>
       <c r="H73" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -25957,21 +25957,21 @@
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>167</v>
+      <c r="A74" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>90</v>
@@ -25980,16 +25980,16 @@
         <v>90</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G74" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="J74" s="1">
         <v>0</v>
@@ -25999,15 +25999,15 @@
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
@@ -26041,15 +26041,15 @@
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="2" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B76" s="3">
         <v>1</v>
@@ -26067,10 +26067,10 @@
         <v>58</v>
       </c>
       <c r="G76" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>66</v>
@@ -26083,7 +26083,7 @@
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O76" s="4" t="s">
         <v>244</v>
@@ -26091,7 +26091,7 @@
     </row>
     <row r="77" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
@@ -26109,13 +26109,13 @@
         <v>58</v>
       </c>
       <c r="G77" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
@@ -26125,15 +26125,15 @@
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>171</v>
+      <c r="A78" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="B78" s="3">
         <v>1</v>
@@ -26151,13 +26151,13 @@
         <v>58</v>
       </c>
       <c r="G78" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78" s="3">
         <v>14</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J78" s="1">
         <v>0</v>
@@ -26170,18 +26170,18 @@
         <v>322</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>172</v>
+      <c r="A79" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B79" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>90</v>
@@ -26190,16 +26190,16 @@
         <v>90</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="J79" s="1">
         <v>0</v>
@@ -26208,52 +26208,10 @@
         <v>0</v>
       </c>
       <c r="L79" s="3"/>
-      <c r="M79" s="2" t="s">
-        <v>322</v>
+      <c r="M79" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B80" s="3">
-        <v>2</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G80" s="3">
-        <v>1</v>
-      </c>
-      <c r="H80" s="3">
-        <v>22</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J80" s="1">
-        <v>0</v>
-      </c>
-      <c r="K80" s="3">
-        <v>0</v>
-      </c>
-      <c r="L80" s="3"/>
-      <c r="M80" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="O80" s="4" t="s">
         <v>214</v>
       </c>
     </row>
@@ -26306,91 +26264,88 @@
     <hyperlink ref="A49" r:id="rId45" tooltip="Iran national football team" display="https://en.wikipedia.org/wiki/Iran_national_football_team" xr:uid="{46B4B814-1210-4048-827E-9FCE15ECF686}"/>
     <hyperlink ref="A50" r:id="rId46" tooltip="Australia national soccer team" display="https://en.wikipedia.org/wiki/Australia_national_soccer_team" xr:uid="{566FA34F-DA12-484E-AB6E-4DCBE374099D}"/>
     <hyperlink ref="A51" r:id="rId47" tooltip="Norway national football team" display="https://en.wikipedia.org/wiki/Norway_national_football_team" xr:uid="{52FB65A2-8A36-0345-955E-D700D57EB7C3}"/>
-    <hyperlink ref="A52" r:id="rId48" tooltip="East Germany national football team" display="https://en.wikipedia.org/wiki/East_Germany_national_football_team" xr:uid="{9ACA3906-CE1B-7F4C-B693-486ED4A5F8F4}"/>
-    <hyperlink ref="A53" r:id="rId49" tooltip="Greece national football team" display="https://en.wikipedia.org/wiki/Greece_national_football_team" xr:uid="{C521C493-43B5-C445-A32C-F91D63B95D46}"/>
-    <hyperlink ref="A54" r:id="rId50" tooltip="Ukraine national football team" display="https://en.wikipedia.org/wiki/Ukraine_national_football_team" xr:uid="{BAAA0F51-E827-7B4C-BA1A-D2563EAC5840}"/>
-    <hyperlink ref="A55" r:id="rId51" tooltip="Wales national football team" display="https://en.wikipedia.org/wiki/Wales_national_football_team" xr:uid="{3B0E3579-DD01-9F41-A9D0-5C164E8410BB}"/>
-    <hyperlink ref="A56" r:id="rId52" tooltip="Slovakia national football team" display="https://en.wikipedia.org/wiki/Slovakia_national_football_team" xr:uid="{04F0798D-904C-EC49-BE28-DDD4570ED628}"/>
-    <hyperlink ref="A57" r:id="rId53" tooltip="Slovenia national football team" display="https://en.wikipedia.org/wiki/Slovenia_national_football_team" xr:uid="{4DE219C5-ADBF-4C45-A064-B55119115E3B}"/>
-    <hyperlink ref="A58" r:id="rId54" tooltip="Cuba national football team" display="https://en.wikipedia.org/wiki/Cuba_national_football_team" xr:uid="{B00FC7BD-3B1A-7644-8423-D8FE8E2F5B69}"/>
-    <hyperlink ref="A59" r:id="rId55" tooltip="North Korea national football team" display="https://en.wikipedia.org/wiki/North_Korea_national_football_team" xr:uid="{B899A629-0AB4-9B4A-BFF0-10298141DF42}"/>
-    <hyperlink ref="A60" r:id="rId56" tooltip="Bosnia and Herzegovina national football team" display="https://en.wikipedia.org/wiki/Bosnia_and_Herzegovina_national_football_team" xr:uid="{6FD3C61F-6ABB-EE44-A2A8-8F058CBD4630}"/>
-    <hyperlink ref="A61" r:id="rId57" tooltip="Jamaica national football team" display="https://en.wikipedia.org/wiki/Jamaica_national_football_team" xr:uid="{8ED3CE7F-0FF7-4548-A4B8-EE1C4A95395F}"/>
-    <hyperlink ref="A62" r:id="rId58" tooltip="New Zealand national football team" display="https://en.wikipedia.org/wiki/New_Zealand_national_football_team" xr:uid="{287A00D4-46AA-4F47-BA3B-4750CFE3B02E}"/>
-    <hyperlink ref="A63" r:id="rId59" tooltip="Honduras national football team" display="https://en.wikipedia.org/wiki/Honduras_national_football_team" xr:uid="{A0A8A610-6FD6-E249-8260-61B9CFF0F658}"/>
-    <hyperlink ref="A64" r:id="rId60" tooltip="Angola national football team" display="https://en.wikipedia.org/wiki/Angola_national_football_team" xr:uid="{107B7EC1-893A-3742-B9AD-07E9E4B615CF}"/>
-    <hyperlink ref="A65" r:id="rId61" tooltip="Israel national football team" display="https://en.wikipedia.org/wiki/Israel_national_football_team" xr:uid="{9499BA00-4FDC-4041-813D-F71D6B46A487}"/>
-    <hyperlink ref="A66" r:id="rId62" tooltip="Egypt national football team" display="https://en.wikipedia.org/wiki/Egypt_national_football_team" xr:uid="{373ECFFA-BD7C-6B47-ABD8-D460FD989BA9}"/>
-    <hyperlink ref="A67" r:id="rId63" tooltip="Iceland national football team" display="https://en.wikipedia.org/wiki/Iceland_national_football_team" xr:uid="{E35B5D68-EFCB-5B4F-81C5-4DA1FC10F740}"/>
-    <hyperlink ref="A68" r:id="rId64" tooltip="Kuwait national football team" display="https://en.wikipedia.org/wiki/Kuwait_national_football_team" xr:uid="{BC25509D-7EAE-FF42-AE8A-EE6B32D73BE8}"/>
-    <hyperlink ref="A69" r:id="rId65" tooltip="Trinidad and Tobago national football team" display="https://en.wikipedia.org/wiki/Trinidad_and_Tobago_national_football_team" xr:uid="{8736A714-2170-924B-8137-6E179878453E}"/>
-    <hyperlink ref="A70" r:id="rId66" tooltip="Bolivia national football team" display="https://en.wikipedia.org/wiki/Bolivia_national_football_team" xr:uid="{421E6BFB-3270-0446-B059-993A92456A70}"/>
-    <hyperlink ref="A71" r:id="rId67" tooltip="Iraq national football team" display="https://en.wikipedia.org/wiki/Iraq_national_football_team" xr:uid="{F1215E36-051B-F547-B2D4-C9D5466DC0B1}"/>
-    <hyperlink ref="A72" r:id="rId68" tooltip="Togo national football team" display="https://en.wikipedia.org/wiki/Togo_national_football_team" xr:uid="{FF07B419-F8C7-6948-B400-A6F7E379D126}"/>
-    <hyperlink ref="A73" r:id="rId69" tooltip="Canada men's national soccer team" display="https://en.wikipedia.org/wiki/Canada_men%27s_national_soccer_team" xr:uid="{E3D9C706-06A1-F144-96B3-0B6F6F8257B3}"/>
-    <hyperlink ref="A75" r:id="rId70" tooltip="Panama national football team" display="https://en.wikipedia.org/wiki/Panama_national_football_team" xr:uid="{AD0F4B7E-F671-0F4D-9600-09BF50CE8A27}"/>
-    <hyperlink ref="A76" r:id="rId71" tooltip="United Arab Emirates national football team" display="https://en.wikipedia.org/wiki/United_Arab_Emirates_national_football_team" xr:uid="{75A9BA84-4533-C848-A46E-B95CDC9AB8BA}"/>
-    <hyperlink ref="A77" r:id="rId72" tooltip="China national football team" display="https://en.wikipedia.org/wiki/China_national_football_team" xr:uid="{68D4AB77-712C-4C40-A2AF-51283982C656}"/>
-    <hyperlink ref="A78" r:id="rId73" tooltip="Haiti national football team" display="https://en.wikipedia.org/wiki/Haiti_national_football_team" xr:uid="{81213E52-DDF3-1446-A1B5-992C416FDAD4}"/>
-    <hyperlink ref="A80" r:id="rId74" tooltip="El Salvador national football team" display="https://en.wikipedia.org/wiki/El_Salvador_national_football_team" xr:uid="{7C4403E3-900D-3240-A4A6-4D468A622E8F}"/>
-    <hyperlink ref="O50" r:id="rId75" location="cite_note-5" display="https://en.wikipedia.org/wiki/All-time_table_of_the_FIFA_World_Cup - cite_note-5" xr:uid="{12FDFBE1-8BFF-5C48-897E-1EE0BE2832FA}"/>
-    <hyperlink ref="O52" r:id="rId76" location="cite_note-6" display="https://en.wikipedia.org/wiki/All-time_table_of_the_FIFA_World_Cup - cite_note-6" xr:uid="{0167836F-9FDF-D244-BD9A-F9772B187088}"/>
-    <hyperlink ref="O65" r:id="rId77" location="cite_note-7" display="https://en.wikipedia.org/wiki/All-time_table_of_the_FIFA_World_Cup - cite_note-7" xr:uid="{BB42827D-E5CC-CB46-A3F5-0C4F72CB8727}"/>
-    <hyperlink ref="M7" r:id="rId78" tooltip="1966 FIFA World Cup" display="https://en.wikipedia.org/wiki/1966_FIFA_World_Cup" xr:uid="{7C8591DF-0672-9B47-9331-B10B9575E1FE}"/>
-    <hyperlink ref="M8" r:id="rId79" tooltip="2010 FIFA World Cup" display="https://en.wikipedia.org/wiki/2010_FIFA_World_Cup" xr:uid="{9E8B2C0B-891D-3D45-91A3-3256827A73A6}"/>
-    <hyperlink ref="M11" r:id="rId80" tooltip="1958 FIFA World Cup" display="https://en.wikipedia.org/wiki/1958_FIFA_World_Cup" xr:uid="{D8B3FA16-0FAC-3943-B4AA-034A246CFC00}"/>
-    <hyperlink ref="M12" r:id="rId81" tooltip="2018 FIFA World Cup" display="https://en.wikipedia.org/wiki/2018_FIFA_World_Cup" xr:uid="{249B48C6-7BA2-A74E-82DE-2EAE92F83C99}"/>
-    <hyperlink ref="M13" r:id="rId82" tooltip="1966 FIFA World Cup" display="https://en.wikipedia.org/wiki/1966_FIFA_World_Cup" xr:uid="{9AF2C235-E47B-254B-AF6E-25DB159D488E}"/>
-    <hyperlink ref="M18" r:id="rId83" tooltip="1966 FIFA World Cup" display="https://en.wikipedia.org/wiki/1966_FIFA_World_Cup" xr:uid="{0FAE947F-E3A9-5E4C-9D45-26071FE615B7}"/>
-    <hyperlink ref="M21" r:id="rId84" tooltip="1954 FIFA World Cup" display="https://en.wikipedia.org/wiki/1954_FIFA_World_Cup" xr:uid="{4CBF8428-F28C-E745-AF13-B6ADE2014081}"/>
-    <hyperlink ref="M22" r:id="rId85" tooltip="1962 FIFA World Cup" display="https://en.wikipedia.org/wiki/1962_FIFA_World_Cup" xr:uid="{52A4E571-5296-FF4D-B267-79BA31400EA4}"/>
-    <hyperlink ref="M23" r:id="rId86" tooltip="2018 FIFA World Cup" display="https://en.wikipedia.org/wiki/2018_FIFA_World_Cup" xr:uid="{ABD034D8-02D3-564D-8BCF-6FDCDFE13F38}"/>
-    <hyperlink ref="M24" r:id="rId87" tooltip="1998 FIFA World Cup" display="https://en.wikipedia.org/wiki/1998_FIFA_World_Cup" xr:uid="{08465601-D663-6E4B-9A91-E18A7FD7A2A0}"/>
-    <hyperlink ref="M25" r:id="rId88" tooltip="2010 FIFA World Cup" display="https://en.wikipedia.org/wiki/2010_FIFA_World_Cup" xr:uid="{5DC5DD2B-BFAE-2845-936E-0308C5596DAC}"/>
-    <hyperlink ref="M26" r:id="rId89" tooltip="2014 FIFA World Cup" display="https://en.wikipedia.org/wiki/2014_FIFA_World_Cup" xr:uid="{F7BCAD56-B494-2444-85F0-3D04B7F4D8FB}"/>
-    <hyperlink ref="M27" r:id="rId90" tooltip="1930 FIFA World Cup" display="https://en.wikipedia.org/wiki/1930_FIFA_World_Cup" xr:uid="{F2E38F23-838B-CC4C-B059-D9493E1B1187}"/>
-    <hyperlink ref="M28" r:id="rId91" tooltip="1994 FIFA World Cup" display="https://en.wikipedia.org/wiki/1994_FIFA_World_Cup" xr:uid="{26BC0C04-0AC3-7F4B-871A-1CA4377B83C9}"/>
-    <hyperlink ref="M29" r:id="rId92" tooltip="2002 FIFA World Cup" display="https://en.wikipedia.org/wiki/2002_FIFA_World_Cup" xr:uid="{D33FB4D3-82A9-6341-8F40-9ED283199D62}"/>
-    <hyperlink ref="M32" r:id="rId93" tooltip="2014 FIFA World Cup" display="https://en.wikipedia.org/wiki/2014_FIFA_World_Cup" xr:uid="{2D19B20B-2FB1-9D48-B738-6C6189DEA319}"/>
-    <hyperlink ref="M34" r:id="rId94" tooltip="1990 FIFA World Cup" display="https://en.wikipedia.org/wiki/1990_FIFA_World_Cup" xr:uid="{5E8D7564-6965-1743-AB00-2319337931D1}"/>
-    <hyperlink ref="M36" r:id="rId95" tooltip="1994 FIFA World Cup" display="https://en.wikipedia.org/wiki/1994_FIFA_World_Cup" xr:uid="{088B1D2D-A0E2-8443-BADF-2FB49ECB7081}"/>
-    <hyperlink ref="M37" r:id="rId96" tooltip="2002 FIFA World Cup" display="https://en.wikipedia.org/wiki/2002_FIFA_World_Cup" xr:uid="{1BD3AE3C-83BB-0C48-857D-F784D5B43EFD}"/>
-    <hyperlink ref="M38" r:id="rId97" tooltip="2010 FIFA World Cup" display="https://en.wikipedia.org/wiki/2010_FIFA_World_Cup" xr:uid="{654E1737-CDE5-554D-9935-616901E584C6}"/>
-    <hyperlink ref="M39" r:id="rId98" tooltip="1990 FIFA World Cup" display="https://en.wikipedia.org/wiki/1990_FIFA_World_Cup" xr:uid="{3395833A-DFFE-5B45-95A6-4794F26D9E3F}"/>
-    <hyperlink ref="M40" r:id="rId99" tooltip="1958 FIFA World Cup" display="https://en.wikipedia.org/wiki/1958_FIFA_World_Cup" xr:uid="{C229F6E5-8C09-AE46-B15B-26D6339EB770}"/>
-    <hyperlink ref="M41" r:id="rId100" tooltip="2006 FIFA World Cup" display="https://en.wikipedia.org/wiki/2006_FIFA_World_Cup" xr:uid="{E61E4D05-A6DC-134B-96AC-0F9585E3AA1E}"/>
-    <hyperlink ref="M42" r:id="rId101" tooltip="2002 FIFA World Cup" display="https://en.wikipedia.org/wiki/2002_FIFA_World_Cup" xr:uid="{614FF70E-BCD9-F840-9725-1027AAFCD147}"/>
-    <hyperlink ref="M43" r:id="rId102" tooltip="2014 FIFA World Cup" display="https://en.wikipedia.org/wiki/2014_FIFA_World_Cup" xr:uid="{38BCBB02-8476-494C-A356-F17BC2D67972}"/>
-    <hyperlink ref="M44" r:id="rId103" tooltip="1986 FIFA World Cup" display="https://en.wikipedia.org/wiki/1986_FIFA_World_Cup" xr:uid="{752EDA53-A91E-6043-853A-5DA01084E17E}"/>
-    <hyperlink ref="M45" r:id="rId104" tooltip="1994 FIFA World Cup" display="https://en.wikipedia.org/wiki/1994_FIFA_World_Cup" xr:uid="{61A5176C-BEEC-D94E-8B4F-175F42F61EBA}"/>
-    <hyperlink ref="M50" r:id="rId105" tooltip="2006 FIFA World Cup" display="https://en.wikipedia.org/wiki/2006_FIFA_World_Cup" xr:uid="{E95136FE-7AF5-284B-98E9-56082746E349}"/>
-    <hyperlink ref="M51" r:id="rId106" tooltip="1998 FIFA World Cup" display="https://en.wikipedia.org/wiki/1998_FIFA_World_Cup" xr:uid="{42872B09-82BB-9A44-9855-0B8AEAAE7578}"/>
-    <hyperlink ref="M52" r:id="rId107" tooltip="1974 FIFA World Cup" display="https://en.wikipedia.org/wiki/1974_FIFA_World_Cup" xr:uid="{63A11C8A-AAE0-724E-AAF5-3826E57AC713}"/>
-    <hyperlink ref="M53" r:id="rId108" tooltip="2014 FIFA World Cup" display="https://en.wikipedia.org/wiki/2014_FIFA_World_Cup" xr:uid="{DD727795-3A53-EF4F-A165-E4037C9840B9}"/>
-    <hyperlink ref="M54" r:id="rId109" tooltip="2006 FIFA World Cup" display="https://en.wikipedia.org/wiki/2006_FIFA_World_Cup" xr:uid="{1DE077EC-25CF-FE46-A47B-82F2AD53A92F}"/>
-    <hyperlink ref="M55" r:id="rId110" tooltip="1958 FIFA World Cup" display="https://en.wikipedia.org/wiki/1958_FIFA_World_Cup" xr:uid="{0D2DE898-9205-7540-BB03-330B690D751D}"/>
-    <hyperlink ref="M56" r:id="rId111" tooltip="2010 FIFA World Cup" display="https://en.wikipedia.org/wiki/2010_FIFA_World_Cup" xr:uid="{D0F74650-ADEB-8542-9A63-562324439A6B}"/>
-    <hyperlink ref="M58" r:id="rId112" tooltip="1938 FIFA World Cup" display="https://en.wikipedia.org/wiki/1938_FIFA_World_Cup" xr:uid="{53C118A1-B117-2B41-8243-AAFEF36CA9DB}"/>
-    <hyperlink ref="M59" r:id="rId113" tooltip="1966 FIFA World Cup" display="https://en.wikipedia.org/wiki/1966_FIFA_World_Cup" xr:uid="{BD9C7D8E-DE28-1441-A0E2-4825D9BF82AD}"/>
-    <hyperlink ref="M60" r:id="rId114" tooltip="2014 FIFA World Cup" display="https://en.wikipedia.org/wiki/2014_FIFA_World_Cup" xr:uid="{9CF0C98F-4E76-B843-B76E-C7905F0D1D35}"/>
-    <hyperlink ref="M61" r:id="rId115" tooltip="1998 FIFA World Cup" display="https://en.wikipedia.org/wiki/1998_FIFA_World_Cup" xr:uid="{E3199779-8E97-F040-9C66-C3B91A8A2350}"/>
-    <hyperlink ref="M64" r:id="rId116" tooltip="2006 FIFA World Cup" display="https://en.wikipedia.org/wiki/2006_FIFA_World_Cup" xr:uid="{A174DD75-EFC4-AB46-A2E7-84AA80F51939}"/>
-    <hyperlink ref="M65" r:id="rId117" tooltip="1970 FIFA World Cup" display="https://en.wikipedia.org/wiki/1970_FIFA_World_Cup" xr:uid="{955F357A-0E81-594F-97BD-C3C606F6A34F}"/>
-    <hyperlink ref="M67" r:id="rId118" tooltip="2018 FIFA World Cup" display="https://en.wikipedia.org/wiki/2018_FIFA_World_Cup" xr:uid="{2F452B59-C96C-4945-8312-01D6A3329341}"/>
-    <hyperlink ref="M68" r:id="rId119" tooltip="1982 FIFA World Cup" display="https://en.wikipedia.org/wiki/1982_FIFA_World_Cup" xr:uid="{4D4E5478-A37D-F845-AF54-E679711FA337}"/>
-    <hyperlink ref="M69" r:id="rId120" tooltip="2006 FIFA World Cup" display="https://en.wikipedia.org/wiki/2006_FIFA_World_Cup" xr:uid="{A2A08928-11FE-D14C-AB01-02146D789672}"/>
-    <hyperlink ref="M71" r:id="rId121" tooltip="1986 FIFA World Cup" display="https://en.wikipedia.org/wiki/1986_FIFA_World_Cup" xr:uid="{E4A62B1B-E3B0-D143-B77D-ABFA57760228}"/>
-    <hyperlink ref="M72" r:id="rId122" tooltip="2006 FIFA World Cup" display="https://en.wikipedia.org/wiki/2006_FIFA_World_Cup" xr:uid="{7FDB4341-911A-464F-91DF-E2FF6DC05260}"/>
-    <hyperlink ref="M73" r:id="rId123" tooltip="1986 FIFA World Cup" display="https://en.wikipedia.org/wiki/1986_FIFA_World_Cup" xr:uid="{193728C9-C038-BB4B-8286-540A1C67BCDD}"/>
-    <hyperlink ref="M74" r:id="rId124" tooltip="1938 FIFA World Cup" display="https://en.wikipedia.org/wiki/1938_FIFA_World_Cup" xr:uid="{125B272E-8BD3-1B4D-8976-B9E6A839B168}"/>
-    <hyperlink ref="M75" r:id="rId125" tooltip="2018 FIFA World Cup" display="https://en.wikipedia.org/wiki/2018_FIFA_World_Cup" xr:uid="{D841B001-F198-7B42-94D9-BBF9607A8570}"/>
-    <hyperlink ref="M76" r:id="rId126" tooltip="1990 FIFA World Cup" display="https://en.wikipedia.org/wiki/1990_FIFA_World_Cup" xr:uid="{94E464B9-F13E-D74D-B580-11DBEDE10E03}"/>
-    <hyperlink ref="M77" r:id="rId127" tooltip="2002 FIFA World Cup" display="https://en.wikipedia.org/wiki/2002_FIFA_World_Cup" xr:uid="{5C7AEA14-213A-D341-8832-DB3708E91E6F}"/>
-    <hyperlink ref="M78" r:id="rId128" tooltip="1974 FIFA World Cup" display="https://en.wikipedia.org/wiki/1974_FIFA_World_Cup" xr:uid="{476A38E5-239A-B845-8D2C-3B0E87F117A3}"/>
-    <hyperlink ref="M79" r:id="rId129" tooltip="1974 FIFA World Cup" display="https://en.wikipedia.org/wiki/1974_FIFA_World_Cup" xr:uid="{81FE9DD6-4D57-FD45-A28F-FCDBEB799A7D}"/>
+    <hyperlink ref="A52" r:id="rId48" tooltip="Greece national football team" display="https://en.wikipedia.org/wiki/Greece_national_football_team" xr:uid="{C521C493-43B5-C445-A32C-F91D63B95D46}"/>
+    <hyperlink ref="A53" r:id="rId49" tooltip="Ukraine national football team" display="https://en.wikipedia.org/wiki/Ukraine_national_football_team" xr:uid="{BAAA0F51-E827-7B4C-BA1A-D2563EAC5840}"/>
+    <hyperlink ref="A54" r:id="rId50" tooltip="Wales national football team" display="https://en.wikipedia.org/wiki/Wales_national_football_team" xr:uid="{3B0E3579-DD01-9F41-A9D0-5C164E8410BB}"/>
+    <hyperlink ref="A55" r:id="rId51" tooltip="Slovakia national football team" display="https://en.wikipedia.org/wiki/Slovakia_national_football_team" xr:uid="{04F0798D-904C-EC49-BE28-DDD4570ED628}"/>
+    <hyperlink ref="A56" r:id="rId52" tooltip="Slovenia national football team" display="https://en.wikipedia.org/wiki/Slovenia_national_football_team" xr:uid="{4DE219C5-ADBF-4C45-A064-B55119115E3B}"/>
+    <hyperlink ref="A57" r:id="rId53" tooltip="Cuba national football team" display="https://en.wikipedia.org/wiki/Cuba_national_football_team" xr:uid="{B00FC7BD-3B1A-7644-8423-D8FE8E2F5B69}"/>
+    <hyperlink ref="A58" r:id="rId54" tooltip="North Korea national football team" display="https://en.wikipedia.org/wiki/North_Korea_national_football_team" xr:uid="{B899A629-0AB4-9B4A-BFF0-10298141DF42}"/>
+    <hyperlink ref="A59" r:id="rId55" tooltip="Bosnia and Herzegovina national football team" display="https://en.wikipedia.org/wiki/Bosnia_and_Herzegovina_national_football_team" xr:uid="{6FD3C61F-6ABB-EE44-A2A8-8F058CBD4630}"/>
+    <hyperlink ref="A60" r:id="rId56" tooltip="Jamaica national football team" display="https://en.wikipedia.org/wiki/Jamaica_national_football_team" xr:uid="{8ED3CE7F-0FF7-4548-A4B8-EE1C4A95395F}"/>
+    <hyperlink ref="A61" r:id="rId57" tooltip="New Zealand national football team" display="https://en.wikipedia.org/wiki/New_Zealand_national_football_team" xr:uid="{287A00D4-46AA-4F47-BA3B-4750CFE3B02E}"/>
+    <hyperlink ref="A62" r:id="rId58" tooltip="Honduras national football team" display="https://en.wikipedia.org/wiki/Honduras_national_football_team" xr:uid="{A0A8A610-6FD6-E249-8260-61B9CFF0F658}"/>
+    <hyperlink ref="A63" r:id="rId59" tooltip="Angola national football team" display="https://en.wikipedia.org/wiki/Angola_national_football_team" xr:uid="{107B7EC1-893A-3742-B9AD-07E9E4B615CF}"/>
+    <hyperlink ref="A64" r:id="rId60" tooltip="Israel national football team" display="https://en.wikipedia.org/wiki/Israel_national_football_team" xr:uid="{9499BA00-4FDC-4041-813D-F71D6B46A487}"/>
+    <hyperlink ref="A65" r:id="rId61" tooltip="Egypt national football team" display="https://en.wikipedia.org/wiki/Egypt_national_football_team" xr:uid="{373ECFFA-BD7C-6B47-ABD8-D460FD989BA9}"/>
+    <hyperlink ref="A66" r:id="rId62" tooltip="Iceland national football team" display="https://en.wikipedia.org/wiki/Iceland_national_football_team" xr:uid="{E35B5D68-EFCB-5B4F-81C5-4DA1FC10F740}"/>
+    <hyperlink ref="A67" r:id="rId63" tooltip="Kuwait national football team" display="https://en.wikipedia.org/wiki/Kuwait_national_football_team" xr:uid="{BC25509D-7EAE-FF42-AE8A-EE6B32D73BE8}"/>
+    <hyperlink ref="A68" r:id="rId64" tooltip="Trinidad and Tobago national football team" display="https://en.wikipedia.org/wiki/Trinidad_and_Tobago_national_football_team" xr:uid="{8736A714-2170-924B-8137-6E179878453E}"/>
+    <hyperlink ref="A69" r:id="rId65" tooltip="Bolivia national football team" display="https://en.wikipedia.org/wiki/Bolivia_national_football_team" xr:uid="{421E6BFB-3270-0446-B059-993A92456A70}"/>
+    <hyperlink ref="A70" r:id="rId66" tooltip="Iraq national football team" display="https://en.wikipedia.org/wiki/Iraq_national_football_team" xr:uid="{F1215E36-051B-F547-B2D4-C9D5466DC0B1}"/>
+    <hyperlink ref="A71" r:id="rId67" tooltip="Togo national football team" display="https://en.wikipedia.org/wiki/Togo_national_football_team" xr:uid="{FF07B419-F8C7-6948-B400-A6F7E379D126}"/>
+    <hyperlink ref="A72" r:id="rId68" tooltip="Canada men's national soccer team" display="https://en.wikipedia.org/wiki/Canada_men%27s_national_soccer_team" xr:uid="{E3D9C706-06A1-F144-96B3-0B6F6F8257B3}"/>
+    <hyperlink ref="A74" r:id="rId69" tooltip="Panama national football team" display="https://en.wikipedia.org/wiki/Panama_national_football_team" xr:uid="{AD0F4B7E-F671-0F4D-9600-09BF50CE8A27}"/>
+    <hyperlink ref="A75" r:id="rId70" tooltip="United Arab Emirates national football team" display="https://en.wikipedia.org/wiki/United_Arab_Emirates_national_football_team" xr:uid="{75A9BA84-4533-C848-A46E-B95CDC9AB8BA}"/>
+    <hyperlink ref="A76" r:id="rId71" tooltip="China national football team" display="https://en.wikipedia.org/wiki/China_national_football_team" xr:uid="{68D4AB77-712C-4C40-A2AF-51283982C656}"/>
+    <hyperlink ref="A77" r:id="rId72" tooltip="Haiti national football team" display="https://en.wikipedia.org/wiki/Haiti_national_football_team" xr:uid="{81213E52-DDF3-1446-A1B5-992C416FDAD4}"/>
+    <hyperlink ref="A79" r:id="rId73" tooltip="El Salvador national football team" display="https://en.wikipedia.org/wiki/El_Salvador_national_football_team" xr:uid="{7C4403E3-900D-3240-A4A6-4D468A622E8F}"/>
+    <hyperlink ref="O50" r:id="rId74" location="cite_note-5" display="https://en.wikipedia.org/wiki/All-time_table_of_the_FIFA_World_Cup - cite_note-5" xr:uid="{12FDFBE1-8BFF-5C48-897E-1EE0BE2832FA}"/>
+    <hyperlink ref="O64" r:id="rId75" location="cite_note-7" display="https://en.wikipedia.org/wiki/All-time_table_of_the_FIFA_World_Cup - cite_note-7" xr:uid="{BB42827D-E5CC-CB46-A3F5-0C4F72CB8727}"/>
+    <hyperlink ref="M7" r:id="rId76" tooltip="1966 FIFA World Cup" display="https://en.wikipedia.org/wiki/1966_FIFA_World_Cup" xr:uid="{7C8591DF-0672-9B47-9331-B10B9575E1FE}"/>
+    <hyperlink ref="M8" r:id="rId77" tooltip="2010 FIFA World Cup" display="https://en.wikipedia.org/wiki/2010_FIFA_World_Cup" xr:uid="{9E8B2C0B-891D-3D45-91A3-3256827A73A6}"/>
+    <hyperlink ref="M11" r:id="rId78" tooltip="1958 FIFA World Cup" display="https://en.wikipedia.org/wiki/1958_FIFA_World_Cup" xr:uid="{D8B3FA16-0FAC-3943-B4AA-034A246CFC00}"/>
+    <hyperlink ref="M12" r:id="rId79" tooltip="2018 FIFA World Cup" display="https://en.wikipedia.org/wiki/2018_FIFA_World_Cup" xr:uid="{249B48C6-7BA2-A74E-82DE-2EAE92F83C99}"/>
+    <hyperlink ref="M13" r:id="rId80" tooltip="1966 FIFA World Cup" display="https://en.wikipedia.org/wiki/1966_FIFA_World_Cup" xr:uid="{9AF2C235-E47B-254B-AF6E-25DB159D488E}"/>
+    <hyperlink ref="M18" r:id="rId81" tooltip="1966 FIFA World Cup" display="https://en.wikipedia.org/wiki/1966_FIFA_World_Cup" xr:uid="{0FAE947F-E3A9-5E4C-9D45-26071FE615B7}"/>
+    <hyperlink ref="M21" r:id="rId82" tooltip="1954 FIFA World Cup" display="https://en.wikipedia.org/wiki/1954_FIFA_World_Cup" xr:uid="{4CBF8428-F28C-E745-AF13-B6ADE2014081}"/>
+    <hyperlink ref="M22" r:id="rId83" tooltip="1962 FIFA World Cup" display="https://en.wikipedia.org/wiki/1962_FIFA_World_Cup" xr:uid="{52A4E571-5296-FF4D-B267-79BA31400EA4}"/>
+    <hyperlink ref="M23" r:id="rId84" tooltip="2018 FIFA World Cup" display="https://en.wikipedia.org/wiki/2018_FIFA_World_Cup" xr:uid="{ABD034D8-02D3-564D-8BCF-6FDCDFE13F38}"/>
+    <hyperlink ref="M24" r:id="rId85" tooltip="1998 FIFA World Cup" display="https://en.wikipedia.org/wiki/1998_FIFA_World_Cup" xr:uid="{08465601-D663-6E4B-9A91-E18A7FD7A2A0}"/>
+    <hyperlink ref="M25" r:id="rId86" tooltip="2010 FIFA World Cup" display="https://en.wikipedia.org/wiki/2010_FIFA_World_Cup" xr:uid="{5DC5DD2B-BFAE-2845-936E-0308C5596DAC}"/>
+    <hyperlink ref="M26" r:id="rId87" tooltip="2014 FIFA World Cup" display="https://en.wikipedia.org/wiki/2014_FIFA_World_Cup" xr:uid="{F7BCAD56-B494-2444-85F0-3D04B7F4D8FB}"/>
+    <hyperlink ref="M27" r:id="rId88" tooltip="1930 FIFA World Cup" display="https://en.wikipedia.org/wiki/1930_FIFA_World_Cup" xr:uid="{F2E38F23-838B-CC4C-B059-D9493E1B1187}"/>
+    <hyperlink ref="M28" r:id="rId89" tooltip="1994 FIFA World Cup" display="https://en.wikipedia.org/wiki/1994_FIFA_World_Cup" xr:uid="{26BC0C04-0AC3-7F4B-871A-1CA4377B83C9}"/>
+    <hyperlink ref="M29" r:id="rId90" tooltip="2002 FIFA World Cup" display="https://en.wikipedia.org/wiki/2002_FIFA_World_Cup" xr:uid="{D33FB4D3-82A9-6341-8F40-9ED283199D62}"/>
+    <hyperlink ref="M32" r:id="rId91" tooltip="2014 FIFA World Cup" display="https://en.wikipedia.org/wiki/2014_FIFA_World_Cup" xr:uid="{2D19B20B-2FB1-9D48-B738-6C6189DEA319}"/>
+    <hyperlink ref="M34" r:id="rId92" tooltip="1990 FIFA World Cup" display="https://en.wikipedia.org/wiki/1990_FIFA_World_Cup" xr:uid="{5E8D7564-6965-1743-AB00-2319337931D1}"/>
+    <hyperlink ref="M36" r:id="rId93" tooltip="1994 FIFA World Cup" display="https://en.wikipedia.org/wiki/1994_FIFA_World_Cup" xr:uid="{088B1D2D-A0E2-8443-BADF-2FB49ECB7081}"/>
+    <hyperlink ref="M37" r:id="rId94" tooltip="2002 FIFA World Cup" display="https://en.wikipedia.org/wiki/2002_FIFA_World_Cup" xr:uid="{1BD3AE3C-83BB-0C48-857D-F784D5B43EFD}"/>
+    <hyperlink ref="M38" r:id="rId95" tooltip="2010 FIFA World Cup" display="https://en.wikipedia.org/wiki/2010_FIFA_World_Cup" xr:uid="{654E1737-CDE5-554D-9935-616901E584C6}"/>
+    <hyperlink ref="M39" r:id="rId96" tooltip="1990 FIFA World Cup" display="https://en.wikipedia.org/wiki/1990_FIFA_World_Cup" xr:uid="{3395833A-DFFE-5B45-95A6-4794F26D9E3F}"/>
+    <hyperlink ref="M40" r:id="rId97" tooltip="1958 FIFA World Cup" display="https://en.wikipedia.org/wiki/1958_FIFA_World_Cup" xr:uid="{C229F6E5-8C09-AE46-B15B-26D6339EB770}"/>
+    <hyperlink ref="M41" r:id="rId98" tooltip="2006 FIFA World Cup" display="https://en.wikipedia.org/wiki/2006_FIFA_World_Cup" xr:uid="{E61E4D05-A6DC-134B-96AC-0F9585E3AA1E}"/>
+    <hyperlink ref="M42" r:id="rId99" tooltip="2002 FIFA World Cup" display="https://en.wikipedia.org/wiki/2002_FIFA_World_Cup" xr:uid="{614FF70E-BCD9-F840-9725-1027AAFCD147}"/>
+    <hyperlink ref="M43" r:id="rId100" tooltip="2014 FIFA World Cup" display="https://en.wikipedia.org/wiki/2014_FIFA_World_Cup" xr:uid="{38BCBB02-8476-494C-A356-F17BC2D67972}"/>
+    <hyperlink ref="M44" r:id="rId101" tooltip="1986 FIFA World Cup" display="https://en.wikipedia.org/wiki/1986_FIFA_World_Cup" xr:uid="{752EDA53-A91E-6043-853A-5DA01084E17E}"/>
+    <hyperlink ref="M45" r:id="rId102" tooltip="1994 FIFA World Cup" display="https://en.wikipedia.org/wiki/1994_FIFA_World_Cup" xr:uid="{61A5176C-BEEC-D94E-8B4F-175F42F61EBA}"/>
+    <hyperlink ref="M50" r:id="rId103" tooltip="2006 FIFA World Cup" display="https://en.wikipedia.org/wiki/2006_FIFA_World_Cup" xr:uid="{E95136FE-7AF5-284B-98E9-56082746E349}"/>
+    <hyperlink ref="M51" r:id="rId104" tooltip="1998 FIFA World Cup" display="https://en.wikipedia.org/wiki/1998_FIFA_World_Cup" xr:uid="{42872B09-82BB-9A44-9855-0B8AEAAE7578}"/>
+    <hyperlink ref="M52" r:id="rId105" tooltip="2014 FIFA World Cup" display="https://en.wikipedia.org/wiki/2014_FIFA_World_Cup" xr:uid="{DD727795-3A53-EF4F-A165-E4037C9840B9}"/>
+    <hyperlink ref="M53" r:id="rId106" tooltip="2006 FIFA World Cup" display="https://en.wikipedia.org/wiki/2006_FIFA_World_Cup" xr:uid="{1DE077EC-25CF-FE46-A47B-82F2AD53A92F}"/>
+    <hyperlink ref="M54" r:id="rId107" tooltip="1958 FIFA World Cup" display="https://en.wikipedia.org/wiki/1958_FIFA_World_Cup" xr:uid="{0D2DE898-9205-7540-BB03-330B690D751D}"/>
+    <hyperlink ref="M55" r:id="rId108" tooltip="2010 FIFA World Cup" display="https://en.wikipedia.org/wiki/2010_FIFA_World_Cup" xr:uid="{D0F74650-ADEB-8542-9A63-562324439A6B}"/>
+    <hyperlink ref="M57" r:id="rId109" tooltip="1938 FIFA World Cup" display="https://en.wikipedia.org/wiki/1938_FIFA_World_Cup" xr:uid="{53C118A1-B117-2B41-8243-AAFEF36CA9DB}"/>
+    <hyperlink ref="M58" r:id="rId110" tooltip="1966 FIFA World Cup" display="https://en.wikipedia.org/wiki/1966_FIFA_World_Cup" xr:uid="{BD9C7D8E-DE28-1441-A0E2-4825D9BF82AD}"/>
+    <hyperlink ref="M59" r:id="rId111" tooltip="2014 FIFA World Cup" display="https://en.wikipedia.org/wiki/2014_FIFA_World_Cup" xr:uid="{9CF0C98F-4E76-B843-B76E-C7905F0D1D35}"/>
+    <hyperlink ref="M60" r:id="rId112" tooltip="1998 FIFA World Cup" display="https://en.wikipedia.org/wiki/1998_FIFA_World_Cup" xr:uid="{E3199779-8E97-F040-9C66-C3B91A8A2350}"/>
+    <hyperlink ref="M63" r:id="rId113" tooltip="2006 FIFA World Cup" display="https://en.wikipedia.org/wiki/2006_FIFA_World_Cup" xr:uid="{A174DD75-EFC4-AB46-A2E7-84AA80F51939}"/>
+    <hyperlink ref="M64" r:id="rId114" tooltip="1970 FIFA World Cup" display="https://en.wikipedia.org/wiki/1970_FIFA_World_Cup" xr:uid="{955F357A-0E81-594F-97BD-C3C606F6A34F}"/>
+    <hyperlink ref="M66" r:id="rId115" tooltip="2018 FIFA World Cup" display="https://en.wikipedia.org/wiki/2018_FIFA_World_Cup" xr:uid="{2F452B59-C96C-4945-8312-01D6A3329341}"/>
+    <hyperlink ref="M67" r:id="rId116" tooltip="1982 FIFA World Cup" display="https://en.wikipedia.org/wiki/1982_FIFA_World_Cup" xr:uid="{4D4E5478-A37D-F845-AF54-E679711FA337}"/>
+    <hyperlink ref="M68" r:id="rId117" tooltip="2006 FIFA World Cup" display="https://en.wikipedia.org/wiki/2006_FIFA_World_Cup" xr:uid="{A2A08928-11FE-D14C-AB01-02146D789672}"/>
+    <hyperlink ref="M70" r:id="rId118" tooltip="1986 FIFA World Cup" display="https://en.wikipedia.org/wiki/1986_FIFA_World_Cup" xr:uid="{E4A62B1B-E3B0-D143-B77D-ABFA57760228}"/>
+    <hyperlink ref="M71" r:id="rId119" tooltip="2006 FIFA World Cup" display="https://en.wikipedia.org/wiki/2006_FIFA_World_Cup" xr:uid="{7FDB4341-911A-464F-91DF-E2FF6DC05260}"/>
+    <hyperlink ref="M72" r:id="rId120" tooltip="1986 FIFA World Cup" display="https://en.wikipedia.org/wiki/1986_FIFA_World_Cup" xr:uid="{193728C9-C038-BB4B-8286-540A1C67BCDD}"/>
+    <hyperlink ref="M73" r:id="rId121" tooltip="1938 FIFA World Cup" display="https://en.wikipedia.org/wiki/1938_FIFA_World_Cup" xr:uid="{125B272E-8BD3-1B4D-8976-B9E6A839B168}"/>
+    <hyperlink ref="M74" r:id="rId122" tooltip="2018 FIFA World Cup" display="https://en.wikipedia.org/wiki/2018_FIFA_World_Cup" xr:uid="{D841B001-F198-7B42-94D9-BBF9607A8570}"/>
+    <hyperlink ref="M75" r:id="rId123" tooltip="1990 FIFA World Cup" display="https://en.wikipedia.org/wiki/1990_FIFA_World_Cup" xr:uid="{94E464B9-F13E-D74D-B580-11DBEDE10E03}"/>
+    <hyperlink ref="M76" r:id="rId124" tooltip="2002 FIFA World Cup" display="https://en.wikipedia.org/wiki/2002_FIFA_World_Cup" xr:uid="{5C7AEA14-213A-D341-8832-DB3708E91E6F}"/>
+    <hyperlink ref="M77" r:id="rId125" tooltip="1974 FIFA World Cup" display="https://en.wikipedia.org/wiki/1974_FIFA_World_Cup" xr:uid="{476A38E5-239A-B845-8D2C-3B0E87F117A3}"/>
+    <hyperlink ref="M78" r:id="rId126" tooltip="1974 FIFA World Cup" display="https://en.wikipedia.org/wiki/1974_FIFA_World_Cup" xr:uid="{81FE9DD6-4D57-FD45-A28F-FCDBEB799A7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId130"/>
+  <drawing r:id="rId127"/>
 </worksheet>
 </file>
 

--- a/all_time_world.xlsx
+++ b/all_time_world.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholas/Documents/private code/DS/Write-a-Data-Science-Blog-Post/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D8D760-7BEE-0543-955C-0E383E1CF49C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C403131-4556-AD4D-A643-6821B4C8539E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="900" windowWidth="28040" windowHeight="17440" xr2:uid="{35BD9E38-D732-EC44-B7B9-3569CF612F2C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="329">
   <si>
     <t>S</t>
   </si>
@@ -3035,6 +3035,36 @@
   </si>
   <si>
     <t>Penalty − W:L</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Germany</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Czech Republic</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -22826,8 +22856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C239FAC-19FD-5749-8CD2-4DFCEE3CDEF2}">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22925,7 +22955,7 @@
     </row>
     <row r="3" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>96</v>
+        <v>327</v>
       </c>
       <c r="B3" s="3">
         <v>19</v>
@@ -23669,7 +23699,7 @@
     </row>
     <row r="20" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>113</v>
+        <v>328</v>
       </c>
       <c r="B20" s="3">
         <v>9</v>
